--- a/calibration/EnhancedDeltaWorksheet.xlsx
+++ b/calibration/EnhancedDeltaWorksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a48f6c17390e0e95/Documents/3d Printing/FLSun V400/repos/Flsun-v400/calibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="974" documentId="8_{AF2189B6-51B5-4526-A0D1-C18BB96211EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9EEB2D4-1629-4E43-86B9-58125BBB7EA8}"/>
+  <xr:revisionPtr revIDLastSave="1027" documentId="8_{AF2189B6-51B5-4526-A0D1-C18BB96211EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C31A1208-B22F-4F0D-83F3-FDD86C146E6A}"/>
   <bookViews>
-    <workbookView xWindow="2844" yWindow="1260" windowWidth="23664" windowHeight="23556" xr2:uid="{E4DE564B-8268-4FF7-AC96-E8DDC72270A7}"/>
+    <workbookView xWindow="3192" yWindow="1608" windowWidth="29244" windowHeight="23556" xr2:uid="{E4DE564B-8268-4FF7-AC96-E8DDC72270A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,104 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">This is just a formula check for the spreadsheet, It can be ignored
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G23" authorId="0" shapeId="0" xr:uid="{A4682040-2EF4-4600-A44A-6497E3B54C18}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The average of all measurement iterations. You can take up to 5 measuremnts per field and they will be averaged. Only entered values are averaged, and values of 0 are ignored. This way you can take 1, or up to 5 measurements and the average will be calculated accordingly.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G37" authorId="0" shapeId="0" xr:uid="{7F28538B-8444-4CB9-9153-5DF8D571B9E7}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The average of all measurement iterations. You can take up to 5 measuremnts per field and they will be averaged. Only entered values are averaged, and values of 0 are ignored. This way you can take 1, or up to 5 measurements and the average will be calculated accordingly.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G50" authorId="0" shapeId="0" xr:uid="{0D3E701F-F83D-41B8-8F0B-3769CCFAB07F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The average of all measurement iterations. You can take up to 5 measuremnts per field and they will be averaged. Only entered values are averaged, and values of 0 are ignored. This way you can take 1, or up to 5 measurements and the average will be calculated accordingly.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H63" authorId="0" shapeId="0" xr:uid="{BCB5718A-E3D9-4407-A249-CFAD1DF52359}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>From Official klipper documentation
+https://www.klipper3d.org/Delta_Calibrate.html</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H64" authorId="0" shapeId="0" xr:uid="{0F9A684B-F815-47EC-A5FD-8795E1D19494}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>From Official klipper documentation
+https://www.klipper3d.org/Delta_Calibrate.html</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H65" authorId="0" shapeId="0" xr:uid="{0DA14647-29DC-4E67-BB50-C54B86C6849C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>From Official klipper documentation
+https://www.klipper3d.org/Delta_Calibrate.html</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -89,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>Enhanced Delta Calibration</t>
   </si>
@@ -223,9 +318,6 @@
     <t>Cells in Yellow Should to filled in by the user</t>
   </si>
   <si>
-    <t>Copy the G-code command (in BOLD) into your console for each step</t>
-  </si>
-  <si>
     <t xml:space="preserve">Latest Version: </t>
   </si>
   <si>
@@ -248,13 +340,54 @@
   </si>
   <si>
     <t>USING</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Dist between pillars</t>
+  </si>
+  <si>
+    <t>Pillar Diameter</t>
+  </si>
+  <si>
+    <t>Measurements (mm)</t>
+  </si>
+  <si>
+    <t>Scaled</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Copy the G-code command (in BOLD) into your console for each step (NOTE: Copy the cell where the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BOLD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> text starts fro each command)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,12 +423,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -389,7 +516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -438,16 +565,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -455,6 +591,41 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -535,34 +706,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -576,13 +719,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1024,10 +1160,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1328,8 +1460,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1355,23 +1487,23 @@
       <c r="F1" s="15"/>
       <c r="G1" s="15"/>
       <c r="H1" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="28"/>
+      <c r="K1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1407,16 +1539,16 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>49</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1432,7 +1564,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -1443,7 +1575,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -1625,18 +1757,18 @@
       <c r="A16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
@@ -2004,14 +2136,14 @@
       <c r="A42" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
@@ -2031,17 +2163,17 @@
       <c r="A44" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="28" t="str">
+      <c r="B44" s="24" t="str">
         <f>"DELTA_ANALYZE CENTER_PILLAR_WIDTHS=" &amp; $G38 &amp; "," &amp; $G39 &amp; "," &amp; $G40</f>
         <v>DELTA_ANALYZE CENTER_PILLAR_WIDTHS=1,1,1</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
@@ -2267,6 +2399,16 @@
       <c r="B62" s="19">
         <v>1</v>
       </c>
+      <c r="F62" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" s="21"/>
+      <c r="H62" s="30">
+        <v>1</v>
+      </c>
+      <c r="I62" s="29" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
@@ -2275,6 +2417,16 @@
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
+      <c r="F63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" s="31">
+        <v>150</v>
+      </c>
+      <c r="I63" s="31">
+        <f>$H63*$B62</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
@@ -2287,10 +2439,19 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="F64" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H64" s="31">
+        <v>74</v>
+      </c>
+      <c r="I64" s="31">
+        <f xml:space="preserve"> $H64 * $B$62</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="10" t="s">
         <v>17</v>
@@ -2298,8 +2459,18 @@
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.35">
+      <c r="F65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H65" s="31">
+        <v>9</v>
+      </c>
+      <c r="I65" s="31">
+        <f xml:space="preserve"> $H65 * $B$62</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.35">
       <c r="A66" s="7"/>
       <c r="B66" s="11" t="s">
         <v>13</v>
@@ -2311,11 +2482,6 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0"/>
   <mergeCells count="14">
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="B42:G42"/>
     <mergeCell ref="B16:K16"/>
     <mergeCell ref="B17:K17"/>
     <mergeCell ref="B31:L31"/>
@@ -2325,75 +2491,80 @@
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="B42:G42"/>
   </mergeCells>
+  <conditionalFormatting sqref="B9:B14">
+    <cfRule type="containsBlanks" dxfId="16" priority="7">
+      <formula>LEN(TRIM(B9))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="lessThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B29">
+    <cfRule type="containsBlanks" dxfId="13" priority="20">
+      <formula>LEN(TRIM(B24))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="lessThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="22" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:B40">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
+      <formula>LEN(TRIM(B38))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:B56">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
+      <formula>LEN(TRIM(B51))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="lessThanOrEqual">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B62">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="between">
+      <formula>0.5</formula>
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C9:F14">
-    <cfRule type="cellIs" dxfId="16" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:B29">
-    <cfRule type="containsBlanks" dxfId="15" priority="20">
-      <formula>LEN(TRIM(B24))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="lessThanOrEqual">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C24:F29">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:F40">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51:F56">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="greaterThan">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B62">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="between">
-      <formula>0.5</formula>
-      <formula>3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:B14">
-    <cfRule type="containsBlanks" dxfId="8" priority="7">
-      <formula>LEN(TRIM(B9))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThanOrEqual">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B40">
-    <cfRule type="containsBlanks" dxfId="5" priority="4">
-      <formula>LEN(TRIM(B38))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThanOrEqual">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B51:B56">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(B51))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
